--- a/biology/Médecine/Jan_Waldenström/Jan_Waldenström.xlsx
+++ b/biology/Médecine/Jan_Waldenström/Jan_Waldenström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jan_Waldenstr%C3%B6m</t>
+          <t>Jan_Waldenström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jan Gösta Waldenström (17 avril 1906 - 1er décembre 1996)[1] est un médecin suédois de médecine interne, qui fut le premier à décrire la maladie qui porte aujourd’hui son nom : la macroglobulinémie de Waldenström ou maladie de Waldenström.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jan Gösta Waldenström (17 avril 1906 - 1er décembre 1996) est un médecin suédois de médecine interne, qui fut le premier à décrire la maladie qui porte aujourd’hui son nom : la macroglobulinémie de Waldenström ou maladie de Waldenström.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jan_Waldenstr%C3%B6m</t>
+          <t>Jan_Waldenström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Stockholm au sein d'une famille de médecins : son père, Johann Henning Waldenström (1877-1972) était un professeur de chirurgie orthopédique à Stockholm et son grand-père, Johan Anton Waldenström (1839-1879) était professeur de médecine interne à Uppsala.
 Jan Waldenström a obtenu son diplôme à l'Université d'Uppsala et a étudié la chimie organique avec Hans Fischer à l’Université technique de Munich. Il était professeur de médecine théorique à l'Université d'Uppsala en 1941 et est devenu professeur de médecine pratique à l’Université de Lund en 1944. Il fut le responsable du Département de Médecine à l'Hôpital général de Malmö jusqu'à sa retraite en 1972.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan_Waldenstr%C3%B6m</t>
+          <t>Jan_Waldenström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) J. Waldenström, « Studien über Porphyrie, Dissertation », Acta Medica Scandinavica, Stockholm, 1937 ; supplément 82: 1-254.
 (en) J. Waldenström, « The porphyrias as inborn errors of metabolism », The American Journal of Medicine, 1957, 22: 758-773.
